--- a/Client/Excel/contents.xlsx
+++ b/Client/Excel/contents.xlsx
@@ -17,6 +17,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>liyaxin</author>
+    <author>Administrator</author>
   </authors>
   <commentList>
     <comment ref="E1" authorId="0">
@@ -33,12 +34,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="G1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1.javascript
+2.lua</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>文件名</t>
   </si>
@@ -58,136 +84,134 @@
     <t>初始列</t>
   </si>
   <si>
-    <t>输出Json代码</t>
-  </si>
-  <si>
     <t>U_UI界面表.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>S_技能.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>技能描述表</t>
   </si>
   <si>
     <t>技能表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>技能伤害表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Buff表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>护盾</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>EffectData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>S_技能.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DamageData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BuffData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ShieldData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SkillData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SkillData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>道具表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>效果表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>S_技能.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D_道具表.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NPC属性表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NPC表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>N_NPC.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>cfg_item</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>cfg_ui</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>cfg_skill_des</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UI界面表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>cfg_npc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>cfg_npc_attr</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>光环</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AuraData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuraData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出文件格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +229,19 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -248,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -270,9 +307,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,7 +612,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -619,22 +653,22 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>6</v>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -648,16 +682,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -671,16 +705,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -694,16 +728,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -717,16 +751,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -740,16 +774,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -763,16 +797,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -786,85 +820,85 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
       </c>
       <c r="G9" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
       </c>
       <c r="G10" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
       </c>
       <c r="G11" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -873,11 +907,11 @@
         <v>0</v>
       </c>
       <c r="G12" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
